--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>268.56141700389497</v>
+        <v>268.56141694328477</v>
       </c>
       <c r="C2">
-        <v>265.02965675181588</v>
+        <v>265.02965675310708</v>
       </c>
       <c r="D2">
-        <v>194.3927585071593</v>
+        <v>194.39275846128089</v>
       </c>
       <c r="E2">
-        <v>265.81938886493123</v>
+        <v>265.8193888365505</v>
       </c>
       <c r="F2">
-        <v>201.70787504501118</v>
+        <v>201.70787504441307</v>
       </c>
       <c r="G2">
-        <v>274.20699561685285</v>
+        <v>274.20699560645721</v>
       </c>
       <c r="H2">
-        <v>236.38591206350998</v>
+        <v>236.3859120216606</v>
       </c>
       <c r="I2">
-        <v>300.85198072740934</v>
+        <v>300.8519807102075</v>
       </c>
       <c r="J2">
-        <v>238.13270485149542</v>
+        <v>238.13270481311599</v>
       </c>
       <c r="K2">
-        <v>249.71940341249135</v>
+        <v>249.7194033738719</v>
       </c>
       <c r="L2">
-        <v>228.01810986873579</v>
+        <v>228.01810982594031</v>
       </c>
       <c r="N2">
-        <v>285.96523868770498</v>
+        <v>285.96523861719356</v>
       </c>
       <c r="O2">
-        <v>260.03792221511617</v>
+        <v>260.03792218044629</v>
       </c>
       <c r="P2">
-        <v>278.61497597777009</v>
+        <v>278.61497597570843</v>
       </c>
       <c r="Q2">
-        <v>328.03561168076214</v>
+        <v>328.03561166678088</v>
       </c>
       <c r="S2">
-        <v>294.05343837784505</v>
+        <v>294.05343836194015</v>
       </c>
       <c r="V2">
-        <v>293.86607608063503</v>
+        <v>293.86607606896632</v>
       </c>
       <c r="W2">
-        <v>303.70824600426721</v>
+        <v>303.70824599862271</v>
       </c>
       <c r="X2">
-        <v>266.24363691736806</v>
+        <v>266.24363689368687</v>
       </c>
       <c r="AA2">
-        <v>288.09481912438491</v>
+        <v>288.09481907265138</v>
       </c>
       <c r="AB2">
-        <v>268.27132438140279</v>
+        <v>268.27132435664242</v>
       </c>
       <c r="AC2">
-        <v>220.87174610687651</v>
+        <v>220.87174610258012</v>
       </c>
       <c r="AD2">
-        <v>266.08756655632214</v>
+        <v>266.08756652550085</v>
       </c>
       <c r="AE2">
-        <v>235.06283306511176</v>
+        <v>235.06283306023283</v>
       </c>
       <c r="AF2">
-        <v>272.68026455316129</v>
+        <v>272.68026455123078</v>
       </c>
       <c r="AG2">
-        <v>231.6657361236139</v>
+        <v>231.66573607350335</v>
       </c>
       <c r="AH2">
-        <v>296.9108077961202</v>
+        <v>296.9108077884361</v>
       </c>
       <c r="AI2">
-        <v>238.20451181284687</v>
+        <v>238.20451178367927</v>
       </c>
       <c r="AJ2">
-        <v>242.69145776949273</v>
+        <v>242.69145775713861</v>
       </c>
       <c r="AK2">
-        <v>224.18603260075457</v>
+        <v>224.18603257276806</v>
       </c>
       <c r="AL2">
-        <v>294.21595929045952</v>
+        <v>294.21595926067454</v>
       </c>
       <c r="AM2">
-        <v>286.67860193885252</v>
+        <v>286.67860187027861</v>
       </c>
       <c r="AN2">
-        <v>255.93217934714903</v>
+        <v>255.93217930074152</v>
       </c>
       <c r="AO2">
-        <v>286.96910339728134</v>
+        <v>286.96910337105635</v>
       </c>
       <c r="AQ2">
-        <v>306.61340538525047</v>
+        <v>306.61340535368265</v>
       </c>
       <c r="AR2">
-        <v>295.08680077950379</v>
+        <v>295.08680077718327</v>
       </c>
       <c r="AS2">
-        <v>294.47986072227405</v>
+        <v>294.47986071616492</v>
       </c>
       <c r="AU2">
-        <v>297.10523637881306</v>
+        <v>297.10523637659202</v>
       </c>
       <c r="AV2">
-        <v>292.62995594428287</v>
+        <v>292.62995590548616</v>
       </c>
       <c r="AW2">
-        <v>263.545369180791</v>
+        <v>263.54536916143422</v>
       </c>
       <c r="AX2">
-        <v>254.78543932436531</v>
+        <v>254.7854392820816</v>
       </c>
       <c r="AY2">
-        <v>246.26181747054213</v>
+        <v>246.26181745260024</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>289.04255604942279</v>
+        <v>289.04255600651601</v>
       </c>
       <c r="C3">
-        <v>258.85560437419025</v>
+        <v>258.85560434855677</v>
       </c>
       <c r="E3">
-        <v>259.49443127171719</v>
+        <v>259.49443125271466</v>
       </c>
       <c r="F3">
-        <v>240.56145784717296</v>
+        <v>240.56145782263945</v>
       </c>
       <c r="G3">
-        <v>267.49132971239027</v>
+        <v>267.49132969036816</v>
       </c>
       <c r="H3">
-        <v>228.83083110448342</v>
+        <v>228.83083106665373</v>
       </c>
       <c r="J3">
-        <v>238.31605566927564</v>
+        <v>238.31605563025738</v>
       </c>
       <c r="K3">
-        <v>253.09073755788489</v>
+        <v>253.09073752524438</v>
       </c>
       <c r="L3">
-        <v>268.9684753226507</v>
+        <v>268.96847527526216</v>
       </c>
       <c r="M3">
-        <v>297.98451764947231</v>
+        <v>297.98439866576706</v>
       </c>
       <c r="N3">
-        <v>293.7852085930345</v>
+        <v>293.78520853744556</v>
       </c>
       <c r="P3">
-        <v>289.04491005224133</v>
+        <v>289.04491001846532</v>
       </c>
       <c r="Q3">
-        <v>322.6080237601787</v>
+        <v>322.60802372723964</v>
       </c>
       <c r="R3">
-        <v>302.58092237533879</v>
+        <v>302.58092235049878</v>
       </c>
       <c r="W3">
-        <v>264.3760387933483</v>
+        <v>264.37603879789231</v>
       </c>
       <c r="AA3">
-        <v>296.26787571029388</v>
+        <v>296.26787566905506</v>
       </c>
       <c r="AB3">
-        <v>252.41892383658137</v>
+        <v>252.41892382802325</v>
       </c>
       <c r="AC3">
-        <v>221.54886670011598</v>
+        <v>221.54886666690041</v>
       </c>
       <c r="AD3">
-        <v>253.01171411207318</v>
+        <v>253.01171406100011</v>
       </c>
       <c r="AE3">
-        <v>256.42204924815098</v>
+        <v>256.42204923133284</v>
       </c>
       <c r="AF3">
-        <v>265.407280660369</v>
+        <v>265.40728064347797</v>
       </c>
       <c r="AG3">
-        <v>232.20156617200155</v>
+        <v>232.20156613847732</v>
       </c>
       <c r="AH3">
-        <v>314.7277167086408</v>
+        <v>314.72771670371412</v>
       </c>
       <c r="AI3">
-        <v>239.33157083541715</v>
+        <v>239.33157078797134</v>
       </c>
       <c r="AJ3">
-        <v>253.36538415169301</v>
+        <v>253.36538410600278</v>
       </c>
       <c r="AK3">
-        <v>241.17222217294673</v>
+        <v>241.1722221230097</v>
       </c>
       <c r="AL3">
-        <v>308.09024615305566</v>
+        <v>308.09024612923213</v>
       </c>
       <c r="AM3">
-        <v>304.39108619400588</v>
+        <v>304.39108615447481</v>
       </c>
       <c r="AN3">
-        <v>249.04615184742184</v>
+        <v>249.04615181701169</v>
       </c>
       <c r="AO3">
-        <v>289.79930071228796</v>
+        <v>289.79930068426751</v>
       </c>
       <c r="AP3">
-        <v>320.77555268360794</v>
+        <v>320.77555265379539</v>
       </c>
       <c r="AQ3">
-        <v>308.2122182619724</v>
+        <v>308.21221824611058</v>
       </c>
       <c r="AS3">
-        <v>276.34807640513588</v>
+        <v>276.34807638969448</v>
       </c>
       <c r="AT3">
-        <v>222.8185184959429</v>
+        <v>222.81851845810939</v>
       </c>
       <c r="AU3">
-        <v>300.45385046555049</v>
+        <v>300.45385043449454</v>
       </c>
       <c r="AV3">
-        <v>263.29044089070669</v>
+        <v>263.29044083436725</v>
       </c>
       <c r="AW3">
-        <v>266.84375887408174</v>
+        <v>266.84375885001714</v>
       </c>
       <c r="AX3">
-        <v>250.9677416990894</v>
+        <v>250.96774165951607</v>
       </c>
       <c r="AY3">
-        <v>264.21901473445683</v>
+        <v>264.21901469503615</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>268.56141694328477</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>265.02965675310708</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>194.39275846128089</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>265.8193888365505</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>201.70787504441307</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>274.20699560645721</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>236.3859120216606</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>300.8519807102075</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>238.13270481311599</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>249.7194033738719</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>228.01810982594031</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>285.96523861719356</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>260.03792218044629</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>278.61497597570843</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>328.03561166678088</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>294.05343836194015</v>
@@ -570,52 +465,55 @@
         <v>266.24363689368687</v>
       </c>
       <c r="AA2">
-        <v>288.09481907265138</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>268.27132435664242</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>220.87174610258012</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>266.08756652550085</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>235.06283306023283</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>272.68026455123078</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>231.66573607350335</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>296.9108077884361</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>238.20451178367927</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>242.69145775713861</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>224.18603257276806</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>294.21595926067454</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>286.67860187027861</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>255.93217930074152</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>286.96910337105635</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>306.61340535368265</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>295.08680077718327</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>289.04255600651601</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>258.85560434855677</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>259.49443125271466</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>240.56145782263945</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>267.49132969036816</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>228.83083106665373</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>238.31605563025738</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>253.09073752524438</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>268.96847527526216</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>297.98439866576706</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>293.78520853744556</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>289.04491001846532</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>322.60802372723964</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>302.58092235049878</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>264.37603879789231</v>
       </c>
       <c r="AA3">
-        <v>296.26787566905506</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>252.41892382802325</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>221.54886666690041</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>253.01171406100011</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>256.42204923133284</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>265.40728064347797</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>232.20156613847732</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>314.72771670371412</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>239.33157078797134</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>253.36538410600278</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>241.1722221230097</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>308.09024612923213</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>304.39108615447481</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>249.04615181701169</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>289.79930068426751</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>320.77555265379539</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>308.21221824611058</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>276.34807638969448</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>268.56141700389497</v>
-      </c>
-      <c r="C2">
-        <v>265.02965675181588</v>
+        <v>260.03792218044629</v>
       </c>
       <c r="D2">
-        <v>194.3927585071593</v>
+        <v>255.93217930074152</v>
       </c>
       <c r="E2">
-        <v>265.81938886493123</v>
+        <v>306.61340535368265</v>
       </c>
       <c r="F2">
         <v>201.70787504501118</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>289.04255604942279</v>
-      </c>
       <c r="C3">
-        <v>258.85560437419025</v>
+        <v>302.58092235049878</v>
+      </c>
+      <c r="D3">
+        <v>249.04615181701169</v>
       </c>
       <c r="E3">
-        <v>259.49443127171719</v>
+        <v>308.11656894531689</v>
       </c>
       <c r="F3">
         <v>240.56145784717296</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>268.56141700389497</v>
+        <v>285.96523861719356</v>
       </c>
       <c r="C2">
-        <v>265.02965675181588</v>
+        <v>260.03792218044629</v>
       </c>
       <c r="D2">
-        <v>194.3927585071593</v>
+        <v>286.67860187027861</v>
       </c>
       <c r="E2">
-        <v>265.81938886493123</v>
+        <v>255.93217930074152</v>
       </c>
       <c r="F2">
         <v>201.70787504501118</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>289.04255604942279</v>
-      </c>
-      <c r="C3">
-        <v>258.85560437419025</v>
+        <v>293.78520853744556</v>
+      </c>
+      <c r="D3">
+        <v>304.39108615447481</v>
       </c>
       <c r="E3">
-        <v>259.49443127171719</v>
+        <v>249.04615181701169</v>
       </c>
       <c r="F3">
         <v>240.56145784717296</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>268.56141694328477</v>
+      </c>
+      <c r="C2">
+        <v>265.02965675310708</v>
+      </c>
+      <c r="D2">
+        <v>194.39275846128089</v>
+      </c>
+      <c r="E2">
+        <v>265.8193888365505</v>
+      </c>
+      <c r="F2">
+        <v>201.70787504441307</v>
+      </c>
+      <c r="G2">
+        <v>274.20699560645721</v>
+      </c>
+      <c r="H2">
+        <v>236.3859120216606</v>
+      </c>
+      <c r="I2">
+        <v>300.8519807102075</v>
+      </c>
+      <c r="J2">
+        <v>238.13270481311599</v>
+      </c>
+      <c r="K2">
+        <v>249.7194033738719</v>
+      </c>
+      <c r="L2">
+        <v>228.01810982594031</v>
+      </c>
+      <c r="N2">
         <v>285.96523861719356</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>260.03792218044629</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>278.61497597570843</v>
+      </c>
+      <c r="Q2">
+        <v>328.03561166678088</v>
+      </c>
+      <c r="S2">
+        <v>294.05343836194015</v>
+      </c>
+      <c r="V2">
+        <v>293.86607606896632</v>
+      </c>
+      <c r="W2">
+        <v>303.70824599862271</v>
+      </c>
+      <c r="X2">
+        <v>266.24363689368687</v>
+      </c>
+      <c r="AA2">
+        <v>288.09481907265138</v>
+      </c>
+      <c r="AB2">
+        <v>268.27132435664242</v>
+      </c>
+      <c r="AC2">
+        <v>220.87174610258012</v>
+      </c>
+      <c r="AD2">
+        <v>266.08756652550085</v>
+      </c>
+      <c r="AE2">
+        <v>235.06283306023283</v>
+      </c>
+      <c r="AF2">
+        <v>272.68026455123078</v>
+      </c>
+      <c r="AG2">
+        <v>231.66573607350335</v>
+      </c>
+      <c r="AH2">
+        <v>296.9108077884361</v>
+      </c>
+      <c r="AI2">
+        <v>238.20451178367927</v>
+      </c>
+      <c r="AJ2">
+        <v>242.69145775713861</v>
+      </c>
+      <c r="AK2">
+        <v>224.18603257276806</v>
+      </c>
+      <c r="AL2">
+        <v>294.21595926067454</v>
+      </c>
+      <c r="AM2">
         <v>286.67860187027861</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>255.93217930074152</v>
       </c>
-      <c r="F2">
-        <v>201.70787504501118</v>
-      </c>
-      <c r="G2">
-        <v>274.20699561685285</v>
-      </c>
-      <c r="H2">
-        <v>236.38591206350998</v>
-      </c>
-      <c r="I2">
-        <v>300.85198072740934</v>
-      </c>
-      <c r="J2">
-        <v>238.13270485149542</v>
-      </c>
-      <c r="K2">
-        <v>249.71940341249135</v>
-      </c>
-      <c r="L2">
-        <v>228.01810986873579</v>
-      </c>
-      <c r="N2">
-        <v>285.96523868770498</v>
-      </c>
-      <c r="O2">
-        <v>260.03792221511617</v>
-      </c>
-      <c r="P2">
-        <v>278.61497597777009</v>
-      </c>
-      <c r="Q2">
-        <v>328.03561168076214</v>
-      </c>
-      <c r="S2">
-        <v>294.05343837784505</v>
-      </c>
-      <c r="V2">
-        <v>293.86607608063503</v>
-      </c>
-      <c r="W2">
-        <v>303.70824600426721</v>
-      </c>
-      <c r="X2">
-        <v>266.24363691736806</v>
-      </c>
-      <c r="AA2">
-        <v>288.09481912438491</v>
-      </c>
-      <c r="AB2">
-        <v>268.27132438140279</v>
-      </c>
-      <c r="AC2">
-        <v>220.87174610687651</v>
-      </c>
-      <c r="AD2">
-        <v>266.08756655632214</v>
-      </c>
-      <c r="AE2">
-        <v>235.06283306511176</v>
-      </c>
-      <c r="AF2">
-        <v>272.68026455316129</v>
-      </c>
-      <c r="AG2">
-        <v>231.6657361236139</v>
-      </c>
-      <c r="AH2">
-        <v>296.9108077961202</v>
-      </c>
-      <c r="AI2">
-        <v>238.20451181284687</v>
-      </c>
-      <c r="AJ2">
-        <v>242.69145776949273</v>
-      </c>
-      <c r="AK2">
-        <v>224.18603260075457</v>
-      </c>
-      <c r="AL2">
-        <v>294.21595929045952</v>
-      </c>
-      <c r="AM2">
-        <v>286.67860193885252</v>
-      </c>
-      <c r="AN2">
-        <v>255.93217934714903</v>
-      </c>
       <c r="AO2">
-        <v>286.96910339728134</v>
+        <v>286.96910337105635</v>
       </c>
       <c r="AQ2">
-        <v>306.61340538525047</v>
+        <v>306.61340535368265</v>
       </c>
       <c r="AR2">
-        <v>295.08680077950379</v>
+        <v>295.08680077718327</v>
       </c>
       <c r="AS2">
-        <v>294.47986072227405</v>
+        <v>294.47986071616492</v>
       </c>
       <c r="AU2">
-        <v>297.10523637881306</v>
+        <v>297.10523637659202</v>
       </c>
       <c r="AV2">
-        <v>292.62995594428287</v>
+        <v>292.62995590548616</v>
       </c>
       <c r="AW2">
-        <v>263.545369180791</v>
+        <v>263.54536916143422</v>
       </c>
       <c r="AX2">
-        <v>254.78543932436531</v>
+        <v>254.7854392820816</v>
       </c>
       <c r="AY2">
-        <v>246.26181747054213</v>
+        <v>246.26181745260024</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>289.04255600651601</v>
+      </c>
+      <c r="C3">
+        <v>258.85560434855677</v>
+      </c>
+      <c r="E3">
+        <v>259.49443125271466</v>
+      </c>
+      <c r="F3">
+        <v>240.56145782263945</v>
+      </c>
+      <c r="G3">
+        <v>267.49132969036816</v>
+      </c>
+      <c r="H3">
+        <v>228.83083106665373</v>
+      </c>
+      <c r="J3">
+        <v>238.31605563025738</v>
+      </c>
+      <c r="K3">
+        <v>253.09073752524438</v>
+      </c>
+      <c r="L3">
+        <v>268.96847527526216</v>
+      </c>
+      <c r="M3">
+        <v>297.98439866576706</v>
+      </c>
+      <c r="N3">
         <v>293.78520853744556</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>289.04491001846532</v>
+      </c>
+      <c r="Q3">
+        <v>322.60802372723964</v>
+      </c>
+      <c r="R3">
+        <v>302.58092235049878</v>
+      </c>
+      <c r="W3">
+        <v>264.37603879789231</v>
+      </c>
+      <c r="AA3">
+        <v>296.26787566905506</v>
+      </c>
+      <c r="AB3">
+        <v>252.41892382802325</v>
+      </c>
+      <c r="AC3">
+        <v>221.54886666690041</v>
+      </c>
+      <c r="AD3">
+        <v>253.01171406100011</v>
+      </c>
+      <c r="AE3">
+        <v>256.42204923133284</v>
+      </c>
+      <c r="AF3">
+        <v>265.40728064347797</v>
+      </c>
+      <c r="AG3">
+        <v>232.20156613847732</v>
+      </c>
+      <c r="AH3">
+        <v>314.66091426768395</v>
+      </c>
+      <c r="AI3">
+        <v>239.33157078797134</v>
+      </c>
+      <c r="AJ3">
+        <v>253.36538410600278</v>
+      </c>
+      <c r="AK3">
+        <v>241.1722221230097</v>
+      </c>
+      <c r="AL3">
+        <v>308.09024612923213</v>
+      </c>
+      <c r="AM3">
         <v>304.39108615447481</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>249.04615181701169</v>
       </c>
-      <c r="F3">
-        <v>240.56145784717296</v>
-      </c>
-      <c r="G3">
-        <v>267.49132971239027</v>
-      </c>
-      <c r="H3">
-        <v>228.83083110448342</v>
-      </c>
-      <c r="J3">
-        <v>238.31605566927564</v>
-      </c>
-      <c r="K3">
-        <v>253.09073755788489</v>
-      </c>
-      <c r="L3">
-        <v>268.9684753226507</v>
-      </c>
-      <c r="M3">
-        <v>297.98451764947231</v>
-      </c>
-      <c r="N3">
-        <v>293.7852085930345</v>
-      </c>
-      <c r="P3">
-        <v>289.04491005224133</v>
-      </c>
-      <c r="Q3">
-        <v>322.6080237601787</v>
-      </c>
-      <c r="R3">
-        <v>302.58092237533879</v>
-      </c>
-      <c r="W3">
-        <v>264.3760387933483</v>
-      </c>
-      <c r="AA3">
-        <v>296.26787571029388</v>
-      </c>
-      <c r="AB3">
-        <v>252.41892383658137</v>
-      </c>
-      <c r="AC3">
-        <v>221.54886670011598</v>
-      </c>
-      <c r="AD3">
-        <v>253.01171411207318</v>
-      </c>
-      <c r="AE3">
-        <v>256.42204924815098</v>
-      </c>
-      <c r="AF3">
-        <v>265.407280660369</v>
-      </c>
-      <c r="AG3">
-        <v>232.20156617200155</v>
-      </c>
-      <c r="AH3">
-        <v>314.66091427916245</v>
-      </c>
-      <c r="AI3">
-        <v>239.33157083541715</v>
-      </c>
-      <c r="AJ3">
-        <v>253.36538415169301</v>
-      </c>
-      <c r="AK3">
-        <v>241.17222217294673</v>
-      </c>
-      <c r="AL3">
-        <v>308.09024615305566</v>
-      </c>
-      <c r="AM3">
-        <v>304.39108619400588</v>
-      </c>
-      <c r="AN3">
-        <v>249.04615184742184</v>
-      </c>
       <c r="AO3">
-        <v>289.79930071228796</v>
+        <v>289.79930068426751</v>
       </c>
       <c r="AP3">
-        <v>320.77555268360794</v>
+        <v>320.77555265379539</v>
       </c>
       <c r="AQ3">
-        <v>308.11656895637253</v>
+        <v>308.11656894531689</v>
       </c>
       <c r="AS3">
-        <v>276.34807640513588</v>
+        <v>276.34807638969448</v>
       </c>
       <c r="AT3">
-        <v>222.8185184959429</v>
+        <v>222.81851845810939</v>
       </c>
       <c r="AU3">
-        <v>300.45385046555049</v>
+        <v>300.45385043449454</v>
       </c>
       <c r="AV3">
-        <v>263.29044089070669</v>
+        <v>263.29044083436725</v>
       </c>
       <c r="AW3">
-        <v>266.84375887408174</v>
+        <v>266.84375885001714</v>
       </c>
       <c r="AX3">
-        <v>250.9677416990894</v>
+        <v>250.96774165951607</v>
       </c>
       <c r="AY3">
-        <v>264.21901473445683</v>
+        <v>264.21901469503615</v>
       </c>
     </row>
   </sheetData>
